--- a/doors-detector/results/house15.xlsx
+++ b/doors-detector/results/house15.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7831580518484923</v>
+        <v>0.8029711677477683</v>
       </c>
       <c r="F2" t="n">
         <v>4230</v>
       </c>
       <c r="G2" t="n">
-        <v>3561</v>
+        <v>3614</v>
       </c>
       <c r="H2" t="n">
-        <v>669</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4911914029277483</v>
+        <v>0.4498440816251305</v>
       </c>
       <c r="F3" t="n">
         <v>56</v>
       </c>
       <c r="G3" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5154370849828178</v>
+        <v>0.5073467134527683</v>
       </c>
       <c r="F4" t="n">
         <v>237</v>
       </c>
       <c r="G4" t="n">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H4" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.772848530294409</v>
+        <v>0.7926906660118029</v>
       </c>
       <c r="F5" t="n">
         <v>4230</v>
       </c>
       <c r="G5" t="n">
-        <v>3513</v>
+        <v>3562</v>
       </c>
       <c r="H5" t="n">
-        <v>717</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.5214297550536924</v>
+        <v>0.5864888606849253</v>
       </c>
       <c r="F6" t="n">
         <v>56</v>
       </c>
       <c r="G6" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6427364817650654</v>
+        <v>0.6711332021664506</v>
       </c>
       <c r="F7" t="n">
         <v>237</v>
       </c>
       <c r="G7" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H7" t="n">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7865764885460208</v>
+        <v>0.8146608796277569</v>
       </c>
       <c r="F8" t="n">
         <v>4230</v>
       </c>
       <c r="G8" t="n">
-        <v>3561</v>
+        <v>3634</v>
       </c>
       <c r="H8" t="n">
-        <v>669</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9">
@@ -710,7 +710,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2b</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6066604879131091</v>
+        <v>0.6927254689544311</v>
       </c>
       <c r="F9" t="n">
         <v>56</v>
       </c>
       <c r="G9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -742,25 +742,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>2b</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E10" t="n">
-        <v>0.6696922063947424</v>
+        <v>0.6845867098484814</v>
       </c>
       <c r="F10" t="n">
         <v>237</v>
       </c>
       <c r="G10" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H10" t="n">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11">
@@ -774,7 +774,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7951506194783076</v>
+        <v>0.816259750896724</v>
       </c>
       <c r="F11" t="n">
         <v>4230</v>
       </c>
       <c r="G11" t="n">
-        <v>3571</v>
+        <v>3621</v>
       </c>
       <c r="H11" t="n">
-        <v>659</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.7212811701615467</v>
+        <v>0.7214847165551671</v>
       </c>
       <c r="F12" t="n">
         <v>56</v>
@@ -824,7 +824,7 @@
         <v>47</v>
       </c>
       <c r="H12" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6707602742423002</v>
+        <v>0.6807815096992298</v>
       </c>
       <c r="F13" t="n">
         <v>237</v>
       </c>
       <c r="G13" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H13" t="n">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
